--- a/Excel/jainam_Weather.xlsx
+++ b/Excel/jainam_Weather.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RSSolar_API_Csharp\Rssolar_api\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel-Files\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CD3073B-6C1D-49CA-A4CD-0B69A0B95F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A84015CA-A79F-4C60-9201-9B42EACB8ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6FBCBB72-0FCD-4230-8DE8-54361A8D6882}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3F9CAC95-6A7B-465F-8F4E-259BE180575F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,20 +27,20 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
+    <t>WEATHER  REPORT</t>
+  </si>
+  <si>
     <t>JAINAM FERRO ALLOYS LTD</t>
   </si>
   <si>
     <t>ADDRESS  -  Vill Thelkadih, Tehsil- Khairagarh, Rajnandgaon</t>
-  </si>
-  <si>
-    <t>WEATHER  REPORT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,19 +49,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="Book Antiqua"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
-      <sz val="23"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Book Antiqua"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="23"/>
       <color theme="4" tint="-0.249977111117893"/>
       <name val="Book Antiqua"/>
@@ -82,7 +70,8 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -109,25 +98,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,18 +428,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19768C7B-19EE-4335-9823-9CA42AADA251}">
-  <dimension ref="A1:O6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC73F8FB-3742-48B6-957B-C5DAA5835575}">
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:O6"/>
+      <selection activeCell="A4" sqref="A4:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -467,10 +453,8 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -484,10 +468,8 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -501,12 +483,10 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -520,10 +500,8 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -537,34 +515,31 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:O3"/>
-    <mergeCell ref="A4:O5"/>
-    <mergeCell ref="A6:O6"/>
+    <mergeCell ref="A1:M3"/>
+    <mergeCell ref="A4:M5"/>
+    <mergeCell ref="A6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>